--- a/docs/src/reference/data-dictionaries/DSuite2023-data-dictionary.xlsx
+++ b/docs/src/reference/data-dictionaries/DSuite2023-data-dictionary.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z194"/>
+  <dimension ref="A1:Z248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,10 +428,10 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="45" customWidth="1" min="9" max="9"/>
@@ -450,22 +450,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>county</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tract</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>zcta</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tract</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -512,17 +512,17 @@
           <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -554,17 +554,17 @@
           <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -596,17 +596,17 @@
           <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -638,17 +638,17 @@
           <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -680,17 +680,17 @@
           <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
@@ -714,17 +714,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EduP</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Employed % - Education</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -733,6 +728,11 @@
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -756,17 +756,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -775,6 +770,11 @@
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -798,17 +798,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -817,6 +812,11 @@
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -840,17 +840,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -859,6 +854,11 @@
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -882,17 +882,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -901,6 +896,11 @@
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -924,17 +924,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -947,6 +942,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>Economic</t>
@@ -954,29 +954,24 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -989,6 +984,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>Economic</t>
@@ -996,29 +996,24 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Median Income</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1027,6 +1022,11 @@
         </is>
       </c>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1050,17 +1050,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1069,6 +1064,11 @@
         </is>
       </c>
       <c r="E15" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1092,17 +1092,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Poverty %</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1111,6 +1106,11 @@
         </is>
       </c>
       <c r="E16" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1134,17 +1134,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1157,36 +1152,36 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1195,6 +1190,11 @@
         </is>
       </c>
       <c r="E18" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1218,17 +1218,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>RentalP</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Rentals %</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1237,6 +1232,11 @@
         </is>
       </c>
       <c r="E19" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1260,17 +1260,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RentalP</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rentals %</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1279,6 +1274,11 @@
         </is>
       </c>
       <c r="E20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1302,17 +1302,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1321,6 +1316,11 @@
         </is>
       </c>
       <c r="E21" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1344,17 +1344,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>VacantP</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Vacant Housing Units %</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1363,6 +1358,11 @@
         </is>
       </c>
       <c r="E22" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -1386,27 +1386,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>VacantP</t>
+          <t>HospAvTmDr</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Vacant Housing Units %</t>
+          <t>Avg. Driving Time to nearest Hospital</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1416,24 +1411,24 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Housing Characteristics </t>
+          <t>Spatial Access to Hospitals</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BupAvTmBk</t>
+          <t>HospCtTmDr</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Tracts with Hospital (30-min drive)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1441,7 +1436,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1453,24 +1448,24 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Hospitals</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BupAvTmDr</t>
+          <t>HospTmDrP</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
+          <t>% Tracts within 30-min Drive of Hospital</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1478,7 +1473,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1490,32 +1485,27 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Hospitals</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BupAvTmWk</t>
+          <t>AvBupTime</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
+          <t>Driving Time to Buprenorphine Provider (driving time across all tracts)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1539,20 +1529,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BupCntBk30</t>
+          <t>AvMetTime</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min bike)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
+          <t>Driving Time to Methadone Provider (driving time across all tracts)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1576,20 +1561,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BupCntBk60</t>
+          <t>AvNaltTime</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min bike)</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
+          <t>Driving Time to Naltrexone Provider (driving time across all tracts)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1613,20 +1593,20 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BupCntDr30</t>
+          <t>BupAvTmBk</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min drive)</t>
+          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1650,20 +1630,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BupCntDr60</t>
+          <t>BupAvTmDr</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Count of buprenorphine providers (drive)</t>
+          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1687,20 +1667,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BupCntWk30</t>
+          <t>BupAvTmWk</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min walk)</t>
+          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1724,20 +1704,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BupCntWk60</t>
+          <t>BupCntBk30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Count of Buprenorphine Providers (30-min bike)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1761,15 +1741,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BupCtTmBk</t>
+          <t>BupCntBk60</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+          <t>Count of Buprenorphine Providers (60-min bike)</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1798,15 +1778,15 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BupCtTmDr</t>
+          <t>BupCntDr30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+          <t>Count of Buprenorphine Providers (30-min drive)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1835,15 +1815,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BupCtTmWk</t>
+          <t>BupCntDr60</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+          <t>Count of buprenorphine providers (drive)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1872,20 +1852,20 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BupMinDis</t>
+          <t>BupCntWk30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1909,20 +1889,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1946,12 +1926,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BupTmBkP</t>
+          <t>BupCtTmBk</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1959,7 +1939,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -1983,20 +1963,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>BupCtTmDr</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2020,12 +2000,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BupTmDrP</t>
+          <t>BupCtTmWk</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2033,7 +2013,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2057,20 +2037,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2094,15 +2074,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BupTmWkP</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2131,12 +2111,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MetAvTmBk</t>
+          <t>BupTmBkP</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Methadone Provider</t>
+          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2144,7 +2124,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2168,15 +2148,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MetAvTmDr</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Methadone Provider</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2205,12 +2185,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MetAvTmWk</t>
+          <t>BupTmDrP</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Methadone Provide</t>
+          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2218,7 +2198,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2242,20 +2222,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MetCntBk30</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2279,20 +2259,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MetCntBk60</t>
+          <t>BupTmWkP</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
+          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2316,20 +2296,15 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MetCntDr30</t>
+          <t>CntBupT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
+          <t>Tracts with Buprenorphine Provider (30-min driving)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2353,20 +2328,15 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MetCntDr60</t>
+          <t>CntMetT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Count of methadone providers (drive)</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
+          <t>Tracts with Methadone Provider (30-min driving)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2390,20 +2360,15 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MetCntWk30</t>
+          <t>CntNaltT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
+          <t>Tracts with Naltrexone Provider (30-min driving)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2427,20 +2392,20 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MetCntWk60</t>
+          <t>MetAvTmBk</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min walk)</t>
+          <t>Biking Time (min) to Nearest Methadone Provider</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2464,12 +2429,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MetCtTmBk</t>
+          <t>MetAvTmDr</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (biking)</t>
+          <t>Driving Time (min) to Nearest Methadone Provider</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2477,7 +2442,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2501,12 +2466,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MetCtTmDr</t>
+          <t>MetAvTmWk</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (driving)</t>
+          <t>Walking Time (min) to Nearest Methadone Provide</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2514,7 +2479,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2538,15 +2503,15 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MetCtTmWk</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (walking)</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+          <t>Count of methadone providers (30-min bike)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2575,20 +2540,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MetMinDis</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2612,20 +2577,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2649,15 +2614,15 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MetTmBkP</t>
+          <t>MetCntDr60</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min bike)</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
+          <t>Count of methadone providers (drive)</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2686,20 +2651,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2723,15 +2688,15 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MetTmDrP</t>
+          <t>MetCntWk60</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
+          <t>Count of Methadone Providers (30-min walk)</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2760,20 +2725,20 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>MetCtTmBk</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>Tracts with Methadone Provider within 30-min (biking)</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2797,12 +2762,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MetTmWkP</t>
+          <t>MetCtTmDr</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min walk)</t>
+          <t>Tracts with Methadone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2810,7 +2775,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2834,20 +2799,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MoudMinDis</t>
+          <t>MetCtTmWk</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>Tracts with Methadone Provider within 30-min (walking)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2871,15 +2836,15 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NaltAvTmBk</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
+          <t>Distance (mi) to nearest Methadone Provider</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2908,15 +2873,15 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>NaltAvTmDr</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
+          <t>Biking Time (min) to nearest Methadone Provider</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2945,12 +2910,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NaltAvTmWk</t>
+          <t>MetTmBkP</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
+          <t>% Tracts With Methadone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2958,7 +2923,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -2982,20 +2947,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NaltCntBk30</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Driving Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3019,20 +2984,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NaltCntBk60</t>
+          <t>MetTmDrP</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
+          <t>% Tracts With Methadone Provider (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3056,20 +3021,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>NaltCntDr30</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Walking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3093,20 +3058,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NaltCntDr60</t>
+          <t>MetTmWkP</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Count of naltrexone providers (drive)</t>
+          <t>% Tracts With Methadone Provider (30-min walk)</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3130,20 +3095,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NaltCntWk30</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Distance (mi) to nearest MOUD (any)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3167,20 +3132,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NaltCntWk60</t>
+          <t>NaltAvTmBk</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min walk)</t>
+          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3204,12 +3169,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NaltCtTmBk</t>
+          <t>NaltAvTmDr</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
+          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3217,7 +3182,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3241,12 +3206,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NaltCtTmDr</t>
+          <t>NaltAvTmWk</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
+          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3254,7 +3219,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3278,15 +3243,15 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NaltCtTmWk</t>
+          <t>NaltCntBk30</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
+          <t>Count of Naltrexone Providers (30-min bike)</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3315,20 +3280,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NaltMinDis</t>
+          <t>NaltCntBk60</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3352,20 +3317,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NaltTmBk</t>
+          <t>NaltCntDr30</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3389,15 +3354,15 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NaltTmBkP</t>
+          <t>NaltCntDr60</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
+          <t>Count of naltrexone providers (drive)</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3426,20 +3391,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NaltTmDr</t>
+          <t>NaltCntWk30</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3463,15 +3428,15 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NaltTmDrP</t>
+          <t>NaltCntWk60</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
+          <t>Count of Naltrexone Providers (60-min walk)</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3500,20 +3465,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NaltTmWk</t>
+          <t>NaltCtTmBk</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3537,12 +3502,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>NaltTmWkP</t>
+          <t>NaltCtTmDr</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3550,7 +3515,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3574,12 +3539,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OtpAvTmDr</t>
+          <t>NaltCtTmWk</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3587,7 +3552,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3611,20 +3576,20 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>OtpCntDr</t>
+          <t>NaltMinDis</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3648,15 +3613,15 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>OtpCtTmDr</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3685,20 +3650,20 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>OtpMinDis</t>
+          <t>NaltTmBkP</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Distance to nearest OTP</t>
+          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3722,20 +3687,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>OtpTmDr</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2025</t>
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3759,12 +3724,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>OtpTmDrP</t>
+          <t>NaltTmDrP</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3772,7 +3737,7 @@
           <t>2025</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3796,15 +3761,15 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2025</t>
         </is>
@@ -3821,2558 +3786,2433 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A50_74HcvD</t>
+          <t>NaltTmWkP</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - 50 to 74 years old</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AmInHcvD</t>
+          <t>OtpAvTmDr</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AsHcvD</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hepatitis C deaths among Asian populations </t>
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>AvA50_74HcvD</t>
+          <t>OtpCtTmDr</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Average Ages between 50 to 74 Hepitatis C virus Deaths</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AvAmInHcvD</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (5-Year Averages)</t>
+          <t>Distance to nearest OTP</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AvBlkHcvD</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (5-Year Averages)</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AvFlHcvD</t>
+          <t>OtpTmDrP</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AvHcvD</t>
+          <t>PctBupT</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Average Hepitatis C virus Deaths (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>% Tracts within 30-min Drive of Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AvHspHcvD</t>
+          <t>PctMetT</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>% Tracts within 30-min Drive of Methadone Provider</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AvMlHcvD</t>
+          <t>PctNaltT</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>% Tracts within 30-min Drive of Naltrexone Provider</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AvO75HcvD</t>
+          <t>TlBupAvTmBk</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Over 75  (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>Average biking time to nearest telehealth buprenorphine provider</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AvU50HcvD</t>
+          <t>TlBupAvTmDr</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Under 50 (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>Average driving time to nearest telehealth buprenorphine provider</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>OpRxRt</t>
+          <t>TlBupAvTmWk</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Opioid Prescription Rate</t>
+          <t>Average walking time to nearest telehealth buprenorphine provider</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MdMarijLaw</t>
+          <t>TlBupCntBk30</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
+          <t>Count of telehealth buprenorphine providers within 30-minute bike ride</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Marijuana Policies</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Marijuana_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AnyPdmpDt</t>
+          <t>TlBupCntDr30</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Any PDMP start date</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute drive</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AnyPdmpFr</t>
+          <t>TlBupCntDr60</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Any PDMP (fraction of year in 2017)</t>
+          <t>Count of telehealth buprenorphine providers within 60-minute drive</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AnyPdmphDt</t>
+          <t>TlBupCntWk30</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP start date</t>
+          <t>Count of telehealth buprenorphine providers within 30-minute walk</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AnyPdmphFr</t>
+          <t>TlBupCtTmBk30</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine biking range</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ElcPdmpDt</t>
+          <t>TlBupCtTmDr30</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Electronic PDMP start date</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine driving range</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ElcPdmpFr</t>
+          <t>TlBupCtTmDr60</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Electronic PDMP (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Count of tracts within 60-min telehealth buprenorphine driving range</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>MsAcPdmpDt</t>
+          <t>TlBupCtTmWk30</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Must-Access PDMP start date</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Count of tracts within 30-min telehealth buprenorphine walking range</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MsAcPdmpFr</t>
+          <t>TlBupMinDis</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Must-Access PDMP (fraction of year in 2017)</t>
+          <t>Minimum distance to telehealth buprenorphine provider</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>OpPdmpDt</t>
+          <t>TlBupTmBk</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Operational PDMP start date</t>
+          <t>Biking time to nearest telehealth buprenorphine provider</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>OpPdmpFr</t>
+          <t>TlBupTmBk30P</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Operational PDMP (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine biking range</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CrrctExp</t>
+          <t>TlBupTmDr</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Corrections expenditures</t>
+          <t>Driving time to nearest telehealth buprenorphine provider</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ExpnFedExp</t>
+          <t>TlBupTmDr30P</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Expansion Medicaid Federal Spending</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine driving range</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ExpnSttExp</t>
+          <t>TlBupTmDr60P</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Expansion Medicaid State Spending</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Percent of tracts within 60-min telehealth buprenorphine driving range</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HlthExp</t>
+          <t>TlBupTmWk</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Public health expenditures</t>
+          <t>Walking time to nearest telehealth buprenorphine provider</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MedcdExp</t>
+          <t>TlBupTmWk30P</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Total Medicaid Spending</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Percent of tracts within 30-min telehealth buprenorphine walking range</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PlcFyrExp</t>
+          <t>MhAvTmDr</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Police &amp; fire expenditures</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>TradFedExp</t>
+          <t>MhCtTmDr</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Traditional Medicaid Federal Spending</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Tracts with Mental Health Provider (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TradSttExp</t>
+          <t>MhTmDrP</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Traditional Medicaid State Spending</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WlfrExp</t>
+          <t>RxAvTmDr</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Public welfare expenditures</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2022</t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BachelorsP</t>
+          <t>RxCtTmDr</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
+          <t>Tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Educational Characteristics</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EduHsP</t>
+          <t>RxTmDrP</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
+          <t>% tracts with Pharmacy (30-min drive)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Educational Characteristics</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EduNoHsP</t>
+          <t>SutpAvTmDr</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over with less than a high school diploma</t>
+          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Educational Characteristics</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>EngProf</t>
+          <t>SutpCtTmDr</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
+          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Educational Characteristics</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GradSclP</t>
+          <t>SutpTmDrP</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over with a graduate or professional degree</t>
+          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Educational Characteristics</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SomeCollegeP</t>
+          <t>HcvAvTmDr</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>% Population 25 years and over with some college, but no degree</t>
+          <t>Average time drive to nearest HCV testing provider</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Educational Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CrowdHsng</t>
+          <t>HcvCntDr</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Proportion of occupied housing units that are considered crowded (more than 1 person per room)</t>
+          <t>Count of HCV Providers</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DivrcdP</t>
+          <t>HcvCtTmDr</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>% Males 15 years and over who are divorced</t>
+          <t>Count of tracts within 30-min driving range</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FamSize</t>
+          <t>HcvMinDis</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Average family size</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Distance to nearest HCV Provider</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>HcvTmDr</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Average household size</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Driving time to nearest HCV Provider</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HhldFA</t>
+          <t>HcvTmDrP</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>% Female householder with no spouse/partner living alone</t>
+          <t>Percent of tracts within 30-min driving range</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HhldFC</t>
+          <t>HivAvTmDr</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>% Female householder with no spouse/partner living with children under 18 years</t>
+          <t>Average time drive to nearest HIV provider</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HhldFS</t>
+          <t>HivCntDr</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>% Female householder 65 years and over living alone</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Count of HIV Providers</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HhldMA</t>
+          <t>HivCtTmDr</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>% Male householder with no spouse/partner living alone</t>
+          <t>Count of tracts within 30-min driving range</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HhldMC</t>
+          <t>HivMinDis</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>% Male householder with no spouse/partner living with children under 18 years</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Distance to nearest HIV Provider</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HhldMS</t>
+          <t>HivTmDr</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>% Male householder 65 years and over living alone</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Driving time to nearest HIV Provider</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2025</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HsdTot</t>
+          <t>HivTmDrP</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Total households</t>
+          <t>Percent of tracts within 30-min driving range</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to HCV Testing</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_HCVTesting.md</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HsdTypCo</t>
+          <t>FqhcAvTmDr</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>% Cohabiting couple household</t>
+          <t>Driving Time to nearest Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HsdTypM</t>
+          <t>FqhcCtTmDr</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve">% Married-couple household </t>
+          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HsdTypMC</t>
+          <t>FqhcTmDrP</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>% Married-couple household With children under 18 years</t>
+          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>MrrdP</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>% Males aged 15 or older who are married and living with their spouse</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>NonRelFhhP</t>
+          <t>A50_74HcvD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Family Households</t>
+          <t>Hepatitis C Deaths - 50 to 74 years old</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>NonRelNfhhP</t>
+          <t>AmInHcvD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Non-family Households</t>
+          <t>Hepatitis C Deaths - American Indian</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>NvMrrdP</t>
+          <t>AsHcvD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>% Males aged 15 or older who never got married</t>
+          <t xml:space="preserve">Hepatitis C deaths among Asian populations </t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>OccupantP</t>
+          <t>AvA50_74HcvD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>% Occupied housing units</t>
+          <t>Average Ages between 50 to 74 Hepitatis C virus Deaths</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SepartedP</t>
+          <t>AvAmInHcvD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>% Males aged 15 years and over who are separated from their spouse</t>
+          <t>Hepatitis C Deaths - American Indian (5-Year Averages)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TotPopHh</t>
+          <t>AvBlkHcvD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Total Population in Households</t>
+          <t>Hepatitis C Deaths - Black (5-Year Averages)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>WidwdP</t>
+          <t>AvFlHcvD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>% Population aged 15 and over who are widowed</t>
+          <t>Hepatitis C Deaths - Women (5-Year Averages)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DisbP</t>
+          <t>AvHcvD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>% Population with Disability</t>
+          <t>Average Hepitatis C virus Deaths (5-Year Averages)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Population with Disability</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Population_withDisability.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FemP</t>
+          <t>AvHspHcvD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>% Population that is Female</t>
+          <t>Hepatitis C Deaths - Hispanic (5-Year Averages)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MaleP</t>
+          <t>AvMlHcvD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>% Population that is Male</t>
+          <t>Hepatitis C Deaths - Men (5-Year Averages)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MedAge</t>
+          <t>AvO75HcvD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Median age</t>
+          <t>Hepatitis C Deaths - Age Over 75  (5-Year Averages)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Ovr16</t>
+          <t>AvU50HcvD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Count persons over 16 years</t>
+          <t>Hepatitis C Deaths - Age Under 50 (5-Year Averages)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Ovr16P</t>
+          <t>OpRxRt</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>% Population over 16 years</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Opioid Prescription Rate</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Ovr18</t>
+          <t>MdMarijLaw</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Count persons over 18 years</t>
+          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6380,46 +6220,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Marijuana Policies</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Marijuana_Laws.md</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ovr18P</t>
+          <t>AnyPdmpDt</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>% Population over 18 years</t>
+          <t>Any PDMP start date</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6427,46 +6252,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ovr21</t>
+          <t>AnyPdmpFr</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Count persons over 21 years</t>
+          <t>Any PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6474,46 +6284,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Ovr21P</t>
+          <t>AnyPdmphDt</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>% Population over 21 years</t>
+          <t>Any Horowitz PDMP start date</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6521,46 +6316,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Ovr62P</t>
+          <t>AnyPdmphFr</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>% Population over 62 years</t>
+          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6568,41 +6348,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Ovr65</t>
+          <t>ElcPdmpDt</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>% Population: Age 65+</t>
+          <t>Electronic PDMP start date</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6610,46 +6380,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ovr65P</t>
+          <t>ElcPdmpFr</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>% Population: Age 65+</t>
+          <t>Electronic PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6657,46 +6412,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SRatio</t>
+          <t>MsAcPdmpDt</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Sex ratio for the total population (males per 100 females)</t>
+          <t>Must-Access PDMP start date</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6704,46 +6444,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SRatio18</t>
+          <t>MsAcPdmpFr</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
+          <t>Must-Access PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6751,46 +6476,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SRatio65</t>
+          <t>OpPdmpDt</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
+          <t>Operational PDMP start date</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6798,46 +6508,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TotPop</t>
+          <t>OpPdmpFr</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Total Population</t>
+          <t>Operational PDMP (fraction of year in 2017)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6845,88 +6540,63 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Und18P</t>
+          <t>CrrctExp</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>% Population under 18 years old</t>
+          <t>Corrections expenditures</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AmIndE</t>
+          <t>ExpnFedExp</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Count Native American/Alaska Native Population</t>
+          <t>Expansion Medicaid Federal Spending</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6934,46 +6604,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AmIndP</t>
+          <t>ExpnSttExp</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>% Native American/Alaska Native Population</t>
+          <t>Expansion Medicaid State Spending</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6981,172 +6636,127 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AsianE</t>
+          <t>HlthExp</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Count Asian Population</t>
+          <t>Public health expenditures</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AsianP</t>
+          <t>MedcdExp</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>% Asian Population</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
+          <t>Total Medicaid Spending</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BlackE</t>
+          <t>PlcFyrExp</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Count Black/African American Populationw</t>
+          <t>Police &amp; fire expenditures</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BlackP</t>
+          <t>TradFedExp</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>% Black/African American Populationw</t>
+          <t>Traditional Medicaid Federal Spending</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7154,46 +6764,31 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>HisE</t>
+          <t>TradSttExp</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Count Hispanic/Latinx Population</t>
+          <t>Traditional Medicaid State Spending</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7201,93 +6796,63 @@
           <t>2023</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>HisP</t>
+          <t>WlfrExp</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
+          <t>Public welfare expenditures</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Social</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>OtherE</t>
+          <t>BachelorsP</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Count Other (race) Population</t>
+          <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7317,24 +6882,24 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>Educational Characteristics</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>OtherP</t>
+          <t>EduHsP</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>% Other (race) Population</t>
+          <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7364,24 +6929,24 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>Educational Characteristics</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>PacIsE</t>
+          <t>EduNoHsP</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Count Native Hawaiian &amp; Other PI Population</t>
+          <t>% Population aged 25 years and over with less than a high school diploma</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7411,24 +6976,24 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>Educational Characteristics</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PacIsP</t>
+          <t>EngProf</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>% Native Hawaiian &amp; Other PI Population</t>
+          <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7458,24 +7023,24 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>Educational Characteristics</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TwoRaceE</t>
+          <t>GradSclP</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Count Population identifying as two or more races</t>
+          <t>% Population aged 25 years and over with a graduate or professional degree</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7505,24 +7070,24 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>Educational Characteristics</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TwoRaceP</t>
+          <t>SomeCollegeP</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>% Population identifying as two or more races</t>
+          <t>% Population 25 years and over with some college, but no degree</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7552,29 +7117,24 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>Educational Characteristics</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>WhiteE</t>
+          <t>CrowdHsng</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Count White Population</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Proportion of occupied housing units that are considered crowded (more than 1 person per room)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7599,29 +7159,24 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>WhiteP</t>
+          <t>DivrcdP</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>% White Population</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>% Males 15 years and over who are divorced</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7646,29 +7201,24 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>DsmAs</t>
+          <t>FamSize</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Asian)</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Average family size</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7676,6 +7226,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="F184" t="inlineStr">
         <is>
           <t>2023</t>
@@ -7688,29 +7243,24 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Residential Segregation Measures</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>DsmBlk</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Black)</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Average household size</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -7718,6 +7268,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="F185" t="inlineStr">
         <is>
           <t>2023</t>
@@ -7730,29 +7285,24 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Residential Segregation Measures</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>DsmHsp</t>
+          <t>HhldFA</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Hispanic)</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>% Female householder with no spouse/partner living alone</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -7760,6 +7310,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="F186" t="inlineStr">
         <is>
           <t>2023</t>
@@ -7772,29 +7327,24 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Residential Segregation Measures</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>IntrAsWht</t>
+          <t>HhldFC</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Asian)</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>% Female householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -7802,6 +7352,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="F187" t="inlineStr">
         <is>
           <t>2023</t>
@@ -7814,29 +7369,24 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Residential Segregation Measures</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>IntrBlkWht</t>
+          <t>HhldFS</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Black)</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>% Female householder 65 years and over living alone</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7844,6 +7394,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="F188" t="inlineStr">
         <is>
           <t>2023</t>
@@ -7856,29 +7411,24 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Residential Segregation Measures</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>IntrHspWht</t>
+          <t>HhldMA</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Hispanic)</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>% Male householder with no spouse/partner living alone</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -7886,6 +7436,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="F189" t="inlineStr">
         <is>
           <t>2023</t>
@@ -7898,29 +7453,24 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Residential Segregation Measures</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>IsoAs</t>
+          <t>HhldMC</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Asian)</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>% Male householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -7928,6 +7478,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="F190" t="inlineStr">
         <is>
           <t>2023</t>
@@ -7940,29 +7495,24 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Residential Segregation Measures</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>IsoBlk</t>
+          <t>HhldMS</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Black)</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>% Male householder 65 years and over living alone</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -7970,6 +7520,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="F191" t="inlineStr">
         <is>
           <t>2023</t>
@@ -7982,29 +7537,24 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Residential Segregation Measures</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>IsoHsp</t>
+          <t>HsdTot</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Hispanic)</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>Total households</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -8012,6 +7562,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="F192" t="inlineStr">
         <is>
           <t>2023</t>
@@ -8024,29 +7579,24 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Residential Segregation Measures</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>HsdTypCo</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>2023</t>
+          <t>% Cohabiting couple household</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -8059,6 +7609,11 @@
           <t>2023</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
       <c r="G193" t="inlineStr">
         <is>
           <t>Social</t>
@@ -8066,52 +7621,2455 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Veteran Population</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
+          <t>HsdTypM</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">% Married-couple household </t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Household Characteristics</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>HsdTypMC</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>% Married-couple household With children under 18 years</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Household Characteristics</t>
+        </is>
+      </c>
+      <c r="I195" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>MrrdP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>% Males aged 15 or older who are married and living with their spouse</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Household Characteristics</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>NonRelFhhP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>% Nonrelatives in Family Households</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Household Characteristics</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>NonRelNfhhP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>% Nonrelatives in Non-family Households</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Household Characteristics</t>
+        </is>
+      </c>
+      <c r="I198" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>NvMrrdP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>% Males aged 15 or older who never got married</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Household Characteristics</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>OccupantP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>% Occupied housing units</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Household Characteristics</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>SepartedP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>% Males aged 15 years and over who are separated from their spouse</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Household Characteristics</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>TotPopHh</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Population in Households</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Household Characteristics</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>WidwdP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>% Population aged 15 and over who are widowed</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Household Characteristics</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>DisbP</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>% Population with Disability</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Population with Disability</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Population_withDisability.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>FemP</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>% Population that is Female</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>MaleP</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>% Population that is Male</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>MedAge</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Median age</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Ovr16</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Count persons over 16 years</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Ovr16P</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>% Population over 16 years</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Ovr18</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Count persons over 18 years</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Ovr18P</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>% Population over 18 years</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Ovr21</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Count persons over 21 years</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Ovr21P</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>% Population over 21 years</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Ovr62P</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>% Population over 62 years</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Ovr65</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>% Population: Age 65+</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Ovr65P</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>% Population: Age 65+</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>SRatio</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Sex ratio for the total population (males per 100 females)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>SRatio18</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>SRatio65</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>TotPop</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Total Population</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Und18P</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>% Population under 18 years old</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Population, Age &amp; Sex Ratios</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>AmIndE</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Count Native American/Alaska Native Population</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>AmIndP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>% Native American/Alaska Native Population</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>AsianE</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Count Asian Population</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>AsianP</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>% Asian Population</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>BlackE</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Count Black/African American Populationw</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>BlackP</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>% Black/African American Populationw</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>HisE</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Count Hispanic/Latinx Population</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>HisP</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>OtherE</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Count Other (race) Population</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>OtherP</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>% Other (race) Population</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>PacIsE</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Count Native Hawaiian &amp; Other PI Population</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>PacIsP</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>% Native Hawaiian &amp; Other PI Population</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>TwoRaceE</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Count Population identifying as two or more races</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>TwoRaceP</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>% Population identifying as two or more races</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>WhiteE</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Count White Population</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>WhiteP</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>% White Population</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Race &amp; Ethnicity</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>DsmAs</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Segregation: Dissimilarity (Asian)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Residential Segregation Measures</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>DsmBlk</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Segregation: Dissimilarity (Black)</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Residential Segregation Measures</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>DsmHsp</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Segregation: Dissimilarity (Hispanic)</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Residential Segregation Measures</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>IntrAsWht</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Segregation: Interaction (Asian)</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Residential Segregation Measures</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>IntrBlkWht</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Segregation: Interaction (Black)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Residential Segregation Measures</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>IntrHspWht</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Segregation: Interaction (Hispanic)</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Residential Segregation Measures</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>IsoAs</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Segregation: Isolation (Asian)</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Residential Segregation Measures</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>IsoBlk</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Segregation: Isolation (Black)</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Residential Segregation Measures</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>IsoHsp</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Segregation: Isolation (Hispanic)</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Residential Segregation Measures</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>TotVetPop</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Total Veteran Population</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Social</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Veteran Population</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
           <t>VetP</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B248" t="inlineStr">
         <is>
           <t>% Veteran Population</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G194" t="inlineStr">
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
         <is>
           <t>Social</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
+      <c r="H248" t="inlineStr">
         <is>
           <t>Veteran Population</t>
         </is>
       </c>
-      <c r="I194" t="inlineStr">
+      <c r="I248" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
